--- a/HBase学习文件/HBase逻辑结构.xlsx
+++ b/HBase学习文件/HBase逻辑结构.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23090" windowHeight="10555"/>
+    <workbookView windowWidth="28800" windowHeight="12660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="71">
   <si>
     <t>Student_info</t>
   </si>
@@ -136,6 +136,147 @@
   </si>
   <si>
     <t>t5</t>
+  </si>
+  <si>
+    <t>row_key</t>
+  </si>
+  <si>
+    <t>weibo-1</t>
+  </si>
+  <si>
+    <t>weibo-2</t>
+  </si>
+  <si>
+    <t>weibo-3</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>userA</t>
+  </si>
+  <si>
+    <t>content</t>
+  </si>
+  <si>
+    <t>userB</t>
+  </si>
+  <si>
+    <t>....</t>
+  </si>
+  <si>
+    <t>weibo</t>
+  </si>
+  <si>
+    <t>weibo-id</t>
+  </si>
+  <si>
+    <t>Content</t>
+  </si>
+  <si>
+    <t>weibo1 - content</t>
+  </si>
+  <si>
+    <t>userA-111111</t>
+  </si>
+  <si>
+    <t>weibo2 - content</t>
+  </si>
+  <si>
+    <t>userA-111122</t>
+  </si>
+  <si>
+    <t>userB-111313</t>
+  </si>
+  <si>
+    <t>userA-111114</t>
+  </si>
+  <si>
+    <t>userC-xxxxxx</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>....</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6" tint="0.8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6" tint="0.8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>...</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6" tint="0.8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>attention</t>
+  </si>
+  <si>
+    <t>fans</t>
+  </si>
+  <si>
+    <t>rowkey</t>
+  </si>
+  <si>
+    <t>news-weibo</t>
+  </si>
+  <si>
+    <t>userX</t>
+  </si>
+  <si>
+    <t>userY</t>
+  </si>
+  <si>
+    <t>userK</t>
+  </si>
+  <si>
+    <t>user?</t>
+  </si>
+  <si>
+    <t>userC</t>
+  </si>
+  <si>
+    <t>userD</t>
   </si>
 </sst>
 </file>
@@ -143,12 +284,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,13 +308,6 @@
       <color theme="0"/>
       <name val="更纱黑体 SC Semibold"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -197,6 +331,28 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="6" tint="0.8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="更纱黑体 SC"/>
       <charset val="134"/>
@@ -209,7 +365,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -223,17 +379,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -245,35 +393,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -282,33 +401,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -328,16 +425,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -358,8 +448,67 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="47">
+  <fills count="53">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -374,19 +523,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor theme="6" tint="0.599993896298105"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor theme="6" tint="0.799981688894314"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.4"/>
+        <bgColor theme="6" tint="0.799981688894314"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.4"/>
+        <fgColor theme="8" tint="0.8"/>
+        <bgColor theme="6" tint="0.799981688894314"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -398,61 +607,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.35"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor theme="6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor theme="6" tint="0.599993896298105"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor theme="6" tint="0.799981688894314"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -464,19 +679,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -488,31 +787,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -524,7 +799,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -534,139 +821,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="34">
+  <borders count="57">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color rgb="FFFF0000"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FFFF0000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thick">
-        <color rgb="FFFF0000"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FFFF0000"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -734,6 +895,314 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thick">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="9" tint="-0.25"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thick">
+        <color theme="9" tint="-0.25"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thick">
+        <color theme="9" tint="-0.25"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="9" tint="-0.25"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="9" tint="-0.25"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thick">
+        <color theme="9" tint="-0.25"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thick">
+        <color theme="9" tint="-0.25"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="6"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="6"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="6"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="6"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="6"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="6"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="1"/>
+      </left>
+      <right style="thick">
+        <color theme="1"/>
+      </right>
+      <top style="thick">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color theme="1"/>
+      </top>
+      <bottom style="thick">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="1"/>
+      </left>
+      <right style="thick">
+        <color theme="1"/>
+      </right>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="1"/>
+      </left>
+      <right style="thick">
+        <color theme="1"/>
+      </right>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
+      <bottom style="thick">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="1"/>
+      </left>
+      <right style="thick">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="1"/>
+      </left>
+      <right style="thick">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thick">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color theme="1"/>
+      </top>
+      <bottom style="thick">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thick">
         <color rgb="FFFF0000"/>
@@ -780,111 +1249,49 @@
     <border>
       <left/>
       <right style="thin">
-        <color theme="0"/>
+        <color theme="6"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color theme="6"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="6"/>
+      </right>
+      <top style="thin">
+        <color theme="6"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color theme="9" tint="-0.25"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
+      <left/>
+      <right style="thick">
+        <color theme="1"/>
       </right>
       <top style="thick">
-        <color theme="9" tint="-0.25"/>
+        <color theme="1"/>
       </top>
-      <bottom style="thin">
-        <color theme="0"/>
+      <bottom style="thick">
+        <color theme="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
+      <left/>
+      <right style="thick">
+        <color theme="1"/>
       </right>
       <top style="thick">
-        <color theme="9" tint="-0.25"/>
+        <color theme="1"/>
       </top>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color theme="9" tint="-0.25"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color theme="9" tint="-0.25"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="thick">
-        <color theme="9" tint="-0.25"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="thick">
-        <color theme="9" tint="-0.25"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -951,6 +1358,91 @@
       </top>
       <bottom style="thick">
         <color theme="9" tint="-0.25"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -979,13 +1471,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1004,493 +1524,547 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="46" borderId="33" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="39" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="39" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="52" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="44" borderId="52" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="45" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="47" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="41" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="46" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="52" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="48" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="50" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="39" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="49" borderId="56" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="53" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="54" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="50" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="40" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="55" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="51" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="54" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="43" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="51" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="42" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="49" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="10" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="11" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="12" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="13" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="12" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="13" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="14" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="15" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="9" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="16" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="17" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="19" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="20" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="21" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="22" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="23" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="24" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="23" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="22" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="23" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="26" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="27" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="28" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="22" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="29" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="26" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="29" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="27" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="7" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="30" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="3" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="31" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="32" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="33" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="30" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="34" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="9" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="11" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="13" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="13" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="15" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="9" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="35" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="36" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="37" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="37" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="37" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="38" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="23" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="37" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="34" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="39" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="31" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="32" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="33" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="40" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="41" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="42" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="42" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="43" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="40" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="44" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="45" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="46" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="47" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="48" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="21" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="17" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1526,8 +2100,8 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="6478905" y="458470"/>
+        <a:xfrm flipH="true" flipV="true">
+          <a:off x="6880860" y="467995"/>
           <a:ext cx="437515" cy="10160"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1564,14 +2138,14 @@
           <xdr:rowOff>8255</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>12</xdr:col>
-          <xdr:colOff>177165</xdr:colOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>334010</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>149225</xdr:rowOff>
         </xdr:to>
         <xdr:sp>
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1025" name="Label 1" hidden="1">
+            <xdr:cNvPr id="1025" name="Label 1" hidden="true">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1025"/>
@@ -1582,15 +2156,15 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="7562850" y="389255"/>
-              <a:ext cx="1028065" cy="342900"/>
+              <a:off x="8004810" y="398780"/>
+              <a:ext cx="1108075" cy="350520"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr wrap="square" anchor="t">
+            <a:bodyPr wrap="square" anchor="t" upright="true">
               <a:noAutofit/>
             </a:bodyPr>
             <a:p>
@@ -1619,16 +2193,16 @@
       <xdr:row>1</xdr:row>
       <xdr:rowOff>120015</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="713105" cy="281940"/>
+    <xdr:ext cx="713105" cy="299085"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="文本框 2"/>
-        <xdr:cNvSpPr txBox="1"/>
+        <xdr:cNvSpPr txBox="true"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6887845" y="310515"/>
-          <a:ext cx="713105" cy="281940"/>
+          <a:off x="7289800" y="310515"/>
+          <a:ext cx="713105" cy="299085"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1695,9 +2269,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="6458585" y="715010"/>
-          <a:ext cx="413385" cy="10160"/>
+        <a:xfrm flipH="true" flipV="true">
+          <a:off x="6820535" y="732155"/>
+          <a:ext cx="453390" cy="10160"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1739,12 +2313,12 @@
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="5" name="文本框 4"/>
-        <xdr:cNvSpPr txBox="1"/>
+        <xdr:cNvSpPr txBox="true"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6946900" y="640080"/>
-          <a:ext cx="685165" cy="256540"/>
+          <a:off x="7348855" y="657225"/>
+          <a:ext cx="725170" cy="264160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1812,16 +2386,16 @@
       <xdr:row>1</xdr:row>
       <xdr:rowOff>186055</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="309880" cy="278765"/>
+    <xdr:ext cx="309880" cy="295910"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="6" name="文本框 5"/>
-        <xdr:cNvSpPr txBox="1"/>
+        <xdr:cNvSpPr txBox="true"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8053070" y="376555"/>
-          <a:ext cx="309880" cy="278765"/>
+          <a:off x="9063990" y="376555"/>
+          <a:ext cx="309880" cy="295910"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1873,8 +2447,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="415925" y="528320"/>
-          <a:ext cx="271780" cy="384175"/>
+          <a:off x="415925" y="537845"/>
+          <a:ext cx="311785" cy="399415"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1916,12 +2490,12 @@
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="8" name="文本框 7"/>
-        <xdr:cNvSpPr txBox="1"/>
+        <xdr:cNvSpPr txBox="true"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="22860" y="307975"/>
-          <a:ext cx="680720" cy="211455"/>
+          <a:ext cx="720725" cy="220980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2001,8 +2575,8 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="6484620" y="1840865"/>
+        <a:xfrm flipH="true" flipV="true">
+          <a:off x="6886575" y="1896110"/>
           <a:ext cx="471805" cy="31115"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2045,12 +2619,12 @@
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="10" name="文本框 9"/>
-        <xdr:cNvSpPr txBox="1"/>
+        <xdr:cNvSpPr txBox="true"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6939915" y="1710055"/>
-          <a:ext cx="1295400" cy="327660"/>
+          <a:off x="7341870" y="1757680"/>
+          <a:ext cx="1904365" cy="335280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2239,9 +2813,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="2417445" y="2941320"/>
-          <a:ext cx="549910" cy="260985"/>
+        <a:xfrm flipH="true" flipV="true">
+          <a:off x="2543175" y="3027045"/>
+          <a:ext cx="593725" cy="260985"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2283,12 +2857,12 @@
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="12" name="文本框 11"/>
-        <xdr:cNvSpPr txBox="1"/>
+        <xdr:cNvSpPr txBox="true"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2971165" y="3100070"/>
-          <a:ext cx="570865" cy="263525"/>
+          <a:off x="3140710" y="3185795"/>
+          <a:ext cx="610870" cy="263525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2468,8 +3042,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5212715" y="4184015"/>
-          <a:ext cx="854710" cy="838200"/>
+          <a:off x="5534660" y="4269740"/>
+          <a:ext cx="894715" cy="853440"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -2618,7 +3192,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -2639,9 +3213,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="16200000" scaled="true"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -2662,7 +3236,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="16200000" scaled="false"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -2732,7 +3306,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -2758,7 +3332,7 @@
             <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -2787,554 +3361,1107 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B3:N32"/>
+  <dimension ref="B2:O81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" topLeftCell="C65" workbookViewId="0">
+      <selection activeCell="L76" sqref="L76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="10.2300884955752" customWidth="1"/>
-    <col min="4" max="4" width="9.83185840707965" customWidth="1"/>
-    <col min="6" max="6" width="12.9469026548673" customWidth="1"/>
-    <col min="7" max="7" width="12.2477876106195" customWidth="1"/>
+    <col min="2" max="2" width="10.2333333333333" customWidth="true"/>
+    <col min="4" max="4" width="9.83333333333333" customWidth="true"/>
+    <col min="6" max="6" width="12.95" customWidth="true"/>
+    <col min="7" max="7" width="12.25" customWidth="true"/>
+    <col min="11" max="11" width="15.9416666666667" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="3" ht="15.9" spans="2:9">
+    <row r="2" ht="15.75"/>
+    <row r="3" ht="16.5" spans="2:9">
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="G3" s="4" t="s">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="G3" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="68"/>
-    </row>
-    <row r="4" ht="15.9" spans="2:9">
-      <c r="B4" s="6" t="s">
+      <c r="H3" s="54"/>
+      <c r="I3" s="86"/>
+    </row>
+    <row r="4" ht="16.5" spans="2:9">
+      <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="9" t="s">
+      <c r="F4" s="55"/>
+      <c r="G4" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="69" t="s">
+      <c r="I4" s="87" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" ht="15.9" spans="2:9">
-      <c r="B5" s="10" t="s">
+    <row r="5" ht="16.5" spans="2:9">
+      <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="6">
         <v>20</v>
       </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="13">
+      <c r="F5" s="55"/>
+      <c r="G5" s="57">
         <v>87</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H5" s="57">
         <v>82</v>
       </c>
-      <c r="I5" s="13">
+      <c r="I5" s="57">
         <v>68</v>
       </c>
     </row>
-    <row r="6" ht="15.15" spans="2:9">
-      <c r="B6" s="14" t="s">
+    <row r="6" ht="15.75" spans="2:9">
+      <c r="B6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="6">
         <v>21</v>
       </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="13">
+      <c r="F6" s="55"/>
+      <c r="G6" s="57">
         <v>83</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H6" s="57">
         <v>93</v>
       </c>
-      <c r="I6" s="13">
+      <c r="I6" s="57">
         <v>71</v>
       </c>
     </row>
     <row r="7" spans="2:11">
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="6">
         <v>19</v>
       </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="15">
+      <c r="F7" s="55"/>
+      <c r="G7" s="58">
         <v>74</v>
       </c>
-      <c r="H7" s="15">
+      <c r="H7" s="58">
         <v>82</v>
       </c>
-      <c r="I7" s="15">
+      <c r="I7" s="58">
         <v>82</v>
       </c>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-    </row>
-    <row r="8" ht="15.15" spans="2:11">
-      <c r="B8" s="16"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
-    </row>
-    <row r="9" ht="15.15" spans="2:11">
-      <c r="B9" s="18" t="s">
+      <c r="J7" s="68"/>
+      <c r="K7" s="68"/>
+    </row>
+    <row r="8" ht="15.75" spans="2:11">
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="68"/>
+      <c r="K8" s="68"/>
+    </row>
+    <row r="9" ht="15.75" spans="2:11">
+      <c r="B9" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9" s="10">
         <v>18</v>
       </c>
-      <c r="F9" s="21"/>
-      <c r="G9" s="22">
+      <c r="F9" s="59"/>
+      <c r="G9" s="60">
         <v>79</v>
       </c>
-      <c r="H9" s="22">
+      <c r="H9" s="60">
         <v>85</v>
       </c>
-      <c r="I9" s="70">
+      <c r="I9" s="88">
         <v>82</v>
       </c>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
+      <c r="J9" s="68"/>
+      <c r="K9" s="68"/>
     </row>
     <row r="10" spans="2:11">
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="25">
+      <c r="E10" s="12">
         <v>19</v>
       </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="26">
+      <c r="F10" s="55"/>
+      <c r="G10" s="61">
         <v>72</v>
       </c>
-      <c r="H10" s="26">
+      <c r="H10" s="61">
         <v>90</v>
       </c>
-      <c r="I10" s="71">
+      <c r="I10" s="89">
         <v>73</v>
       </c>
-      <c r="J10" s="40"/>
-      <c r="K10" s="40"/>
-    </row>
-    <row r="11" ht="15.15" spans="2:11">
-      <c r="B11" s="27" t="s">
+      <c r="J10" s="68"/>
+      <c r="K10" s="68"/>
+    </row>
+    <row r="11" ht="15.75" spans="2:11">
+      <c r="B11" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="28" t="s">
+      <c r="D11" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="29">
+      <c r="E11" s="14">
         <v>19</v>
       </c>
-      <c r="F11" s="30"/>
-      <c r="G11" s="31">
+      <c r="F11" s="62"/>
+      <c r="G11" s="63">
         <v>91</v>
       </c>
-      <c r="H11" s="31">
+      <c r="H11" s="63">
         <v>88</v>
       </c>
-      <c r="I11" s="72">
+      <c r="I11" s="90">
         <v>77</v>
       </c>
-      <c r="J11" s="40"/>
-      <c r="K11" s="40"/>
-    </row>
-    <row r="12" ht="15.9" spans="2:12">
-      <c r="B12" s="16"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="40"/>
-      <c r="L12" s="40"/>
-    </row>
-    <row r="13" ht="15.15" spans="2:14">
-      <c r="B13" s="18" t="s">
+      <c r="J11" s="68"/>
+      <c r="K11" s="68"/>
+    </row>
+    <row r="12" ht="16.5" spans="2:12">
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="68"/>
+      <c r="K12" s="68"/>
+      <c r="L12" s="68"/>
+    </row>
+    <row r="13" ht="15.75" spans="2:14">
+      <c r="B13" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="33" t="s">
+      <c r="C13" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="33" t="s">
+      <c r="D13" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="34">
+      <c r="E13" s="64">
         <v>22</v>
       </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="35">
+      <c r="F13" s="55"/>
+      <c r="G13" s="65">
         <v>81</v>
       </c>
-      <c r="H13" s="35">
+      <c r="H13" s="65">
         <v>78</v>
       </c>
-      <c r="I13" s="35">
+      <c r="I13" s="65">
         <v>66</v>
       </c>
-      <c r="J13" s="40"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="40"/>
-      <c r="N13" s="40"/>
+      <c r="J13" s="68"/>
+      <c r="K13" s="68"/>
+      <c r="L13" s="68"/>
+      <c r="M13" s="68"/>
+      <c r="N13" s="68"/>
     </row>
     <row r="14" spans="2:14">
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="36" t="s">
+      <c r="C14" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="36" t="s">
+      <c r="D14" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="37">
+      <c r="E14" s="66">
         <v>18</v>
       </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="35">
+      <c r="F14" s="55"/>
+      <c r="G14" s="65">
         <v>90</v>
       </c>
-      <c r="H14" s="35">
+      <c r="H14" s="65">
         <v>81</v>
       </c>
-      <c r="I14" s="35">
+      <c r="I14" s="65">
         <v>60</v>
       </c>
-      <c r="J14" s="40"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
-      <c r="N14" s="40"/>
-    </row>
-    <row r="15" ht="15.15" spans="2:14">
-      <c r="B15" s="27" t="s">
+      <c r="J14" s="68"/>
+      <c r="K14" s="68"/>
+      <c r="L14" s="68"/>
+      <c r="M14" s="68"/>
+      <c r="N14" s="68"/>
+    </row>
+    <row r="15" ht="15.75" spans="2:14">
+      <c r="B15" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="38" t="s">
+      <c r="C15" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="38" t="s">
+      <c r="D15" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="39">
+      <c r="E15" s="67">
         <v>21</v>
       </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="35">
+      <c r="F15" s="55"/>
+      <c r="G15" s="65">
         <v>89</v>
       </c>
-      <c r="H15" s="35">
+      <c r="H15" s="65">
         <v>76</v>
       </c>
-      <c r="I15" s="35">
+      <c r="I15" s="65">
         <v>71</v>
       </c>
-      <c r="J15" s="40"/>
-      <c r="K15" s="40"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="40"/>
-      <c r="N15" s="40"/>
+      <c r="J15" s="68"/>
+      <c r="K15" s="68"/>
+      <c r="L15" s="68"/>
+      <c r="M15" s="68"/>
+      <c r="N15" s="68"/>
     </row>
     <row r="16" ht="15.75" spans="6:14">
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="40"/>
-      <c r="N16" s="40"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="68"/>
+      <c r="K16" s="68"/>
+      <c r="L16" s="68"/>
+      <c r="M16" s="68"/>
+      <c r="N16" s="68"/>
     </row>
     <row r="17" spans="6:14">
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="40"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="40"/>
-      <c r="N17" s="40"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="68"/>
+      <c r="H17" s="68"/>
+      <c r="I17" s="68"/>
+      <c r="J17" s="68"/>
+      <c r="K17" s="68"/>
+      <c r="L17" s="68"/>
+      <c r="M17" s="68"/>
+      <c r="N17" s="68"/>
     </row>
     <row r="18" spans="10:14">
-      <c r="J18" s="40"/>
-      <c r="K18" s="40"/>
-      <c r="L18" s="40"/>
-      <c r="M18" s="40"/>
-      <c r="N18" s="40"/>
+      <c r="J18" s="68"/>
+      <c r="K18" s="68"/>
+      <c r="L18" s="68"/>
+      <c r="M18" s="68"/>
+      <c r="N18" s="68"/>
     </row>
     <row r="19" spans="10:14">
-      <c r="J19" s="40"/>
-      <c r="K19" s="40"/>
-      <c r="L19" s="40"/>
-      <c r="M19" s="40"/>
-      <c r="N19" s="40"/>
+      <c r="J19" s="68"/>
+      <c r="K19" s="68"/>
+      <c r="L19" s="68"/>
+      <c r="M19" s="68"/>
+      <c r="N19" s="68"/>
     </row>
     <row r="20" spans="10:13">
-      <c r="J20" s="40"/>
-      <c r="K20" s="40"/>
-      <c r="L20" s="40"/>
-      <c r="M20" s="40"/>
+      <c r="J20" s="68"/>
+      <c r="K20" s="68"/>
+      <c r="L20" s="68"/>
+      <c r="M20" s="68"/>
     </row>
     <row r="21" ht="15.75" spans="10:13">
-      <c r="J21" s="40"/>
-      <c r="K21" s="40"/>
-      <c r="L21" s="40"/>
-      <c r="M21" s="40"/>
-    </row>
-    <row r="22" ht="15.9" spans="4:8">
-      <c r="D22" s="41" t="s">
+      <c r="J21" s="68"/>
+      <c r="K21" s="68"/>
+      <c r="L21" s="68"/>
+      <c r="M21" s="68"/>
+    </row>
+    <row r="22" ht="16.5" spans="4:8">
+      <c r="D22" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="E22" s="42" t="s">
+      <c r="E22" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="F22" s="42" t="s">
+      <c r="F22" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="G22" s="43">
+      <c r="G22" s="70">
         <v>22</v>
       </c>
-      <c r="H22" s="8"/>
-    </row>
-    <row r="23" ht="15.15" spans="4:8">
-      <c r="D23" s="44" t="s">
+      <c r="H22" s="55"/>
+    </row>
+    <row r="23" ht="15.75" spans="4:8">
+      <c r="D23" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E23" s="45" t="s">
+      <c r="E23" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="F23" s="45" t="s">
+      <c r="F23" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="G23" s="46">
+      <c r="G23" s="71">
         <v>18</v>
       </c>
-      <c r="H23" s="8"/>
+      <c r="H23" s="55"/>
     </row>
     <row r="24" spans="4:8">
-      <c r="D24" s="47" t="s">
+      <c r="D24" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E24" s="48" t="s">
+      <c r="E24" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="F24" s="48" t="s">
+      <c r="F24" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="G24" s="49">
+      <c r="G24" s="71">
         <v>21</v>
       </c>
-      <c r="H24" s="8"/>
+      <c r="H24" s="55"/>
     </row>
     <row r="25" spans="8:8">
-      <c r="H25" s="40"/>
+      <c r="H25" s="68"/>
     </row>
     <row r="26" spans="7:10">
-      <c r="G26" s="40"/>
-      <c r="H26" s="40"/>
-      <c r="I26" s="40"/>
-      <c r="J26" s="40"/>
+      <c r="G26" s="68"/>
+      <c r="H26" s="68"/>
+      <c r="I26" s="68"/>
+      <c r="J26" s="68"/>
     </row>
     <row r="27" ht="15.75" spans="3:10">
-      <c r="C27" s="50" t="s">
+      <c r="C27" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D27" s="51" t="s">
+      <c r="D27" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="E27" s="51"/>
-      <c r="F27" s="51" t="s">
+      <c r="E27" s="20"/>
+      <c r="F27" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="G27" s="52" t="s">
+      <c r="G27" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="H27" s="52" t="s">
+      <c r="H27" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="I27" s="73" t="s">
+      <c r="I27" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="J27" s="40"/>
+      <c r="J27" s="68"/>
     </row>
     <row r="28" ht="15.75" spans="3:10">
-      <c r="C28" s="53" t="s">
+      <c r="C28" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="54" t="s">
+      <c r="D28" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54" t="s">
+      <c r="E28" s="22"/>
+      <c r="F28" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="G28" s="55" t="s">
+      <c r="G28" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="H28" s="55" t="s">
+      <c r="H28" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="I28" s="74" t="s">
+      <c r="I28" s="92" t="s">
         <v>24</v>
       </c>
-      <c r="J28" s="40"/>
+      <c r="J28" s="68"/>
     </row>
     <row r="29" spans="3:10">
-      <c r="C29" s="56" t="s">
+      <c r="C29" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="57" t="s">
+      <c r="D29" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="E29" s="57"/>
-      <c r="F29" s="57" t="s">
+      <c r="E29" s="24"/>
+      <c r="F29" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="G29" s="58" t="s">
+      <c r="G29" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="H29" s="58" t="s">
+      <c r="H29" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="I29" s="75" t="s">
+      <c r="I29" s="93" t="s">
         <v>16</v>
       </c>
-      <c r="J29" s="40"/>
+      <c r="J29" s="68"/>
     </row>
     <row r="30" spans="3:9">
-      <c r="C30" s="59" t="s">
+      <c r="C30" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="D30" s="60" t="s">
+      <c r="D30" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="E30" s="60"/>
-      <c r="F30" s="60" t="s">
+      <c r="E30" s="26"/>
+      <c r="F30" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="G30" s="61" t="s">
+      <c r="G30" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="H30" s="61" t="s">
+      <c r="H30" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="I30" s="76">
+      <c r="I30" s="94">
         <v>18</v>
       </c>
     </row>
-    <row r="31" ht="15.15" spans="3:9">
-      <c r="C31" s="62" t="s">
+    <row r="31" ht="15.75" spans="3:9">
+      <c r="C31" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="63" t="s">
+      <c r="D31" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="E31" s="63"/>
-      <c r="F31" s="63" t="s">
+      <c r="E31" s="28"/>
+      <c r="F31" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="G31" s="64" t="s">
+      <c r="G31" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="H31" s="64" t="s">
+      <c r="H31" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="I31" s="77">
+      <c r="I31" s="95">
         <v>22</v>
       </c>
     </row>
-    <row r="32" ht="15.15" spans="3:9">
-      <c r="C32" s="65" t="s">
+    <row r="32" ht="15.75" spans="3:9">
+      <c r="C32" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="D32" s="66" t="s">
+      <c r="D32" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="E32" s="66"/>
-      <c r="F32" s="66" t="s">
+      <c r="E32" s="30"/>
+      <c r="F32" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="G32" s="67" t="s">
+      <c r="G32" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="H32" s="67" t="s">
+      <c r="H32" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="I32" s="78" t="s">
+      <c r="I32" s="96" t="s">
         <v>26</v>
       </c>
     </row>
+    <row r="36" ht="15.75" spans="3:7">
+      <c r="C36" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="D36" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="E36" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="F36" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="G36" s="78" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" ht="16.5" spans="3:7">
+      <c r="C37" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="D37" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="E37" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="F37" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="G37" s="34" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" ht="16.5" spans="3:7">
+      <c r="C38" s="33"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="34"/>
+      <c r="G38" s="34"/>
+    </row>
+    <row r="39" ht="15.75" spans="3:7">
+      <c r="C39" s="33"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="34"/>
+      <c r="F39" s="34"/>
+      <c r="G39" s="34"/>
+    </row>
+    <row r="40" spans="3:7">
+      <c r="C40" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="D40" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="E40" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="G40" s="34"/>
+    </row>
+    <row r="41" spans="3:7">
+      <c r="C41" s="35"/>
+      <c r="D41" s="34"/>
+      <c r="E41" s="34"/>
+      <c r="F41" s="34"/>
+      <c r="G41" s="34"/>
+    </row>
+    <row r="42" spans="3:7">
+      <c r="C42" s="35"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="34"/>
+      <c r="F42" s="34"/>
+      <c r="G42" s="34"/>
+    </row>
+    <row r="43" spans="3:7">
+      <c r="C43" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="D43" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="E43" s="34"/>
+      <c r="F43" s="34"/>
+      <c r="G43" s="34"/>
+    </row>
+    <row r="44" spans="3:7">
+      <c r="C44" s="35"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="34"/>
+      <c r="G44" s="34"/>
+    </row>
+    <row r="45" spans="3:7">
+      <c r="C45" s="35"/>
+      <c r="D45" s="34"/>
+      <c r="E45" s="34"/>
+      <c r="F45" s="34"/>
+      <c r="G45" s="34"/>
+    </row>
+    <row r="53" ht="15.75" spans="3:15">
+      <c r="C53" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="D53" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="E53" s="37"/>
+      <c r="F53" s="37"/>
+      <c r="G53" s="79"/>
+      <c r="K53" s="97" t="s">
+        <v>50</v>
+      </c>
+      <c r="L53" s="98" t="s">
+        <v>51</v>
+      </c>
+      <c r="M53" s="98"/>
+      <c r="N53" s="98"/>
+      <c r="O53" s="98"/>
+    </row>
+    <row r="54" ht="16.5" spans="3:15">
+      <c r="C54" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="D54" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="E54" s="39"/>
+      <c r="F54" s="39"/>
+      <c r="G54" s="80"/>
+      <c r="K54" s="99" t="s">
+        <v>53</v>
+      </c>
+      <c r="L54" s="100" t="s">
+        <v>44</v>
+      </c>
+      <c r="M54" s="100"/>
+      <c r="N54" s="100"/>
+      <c r="O54" s="100"/>
+    </row>
+    <row r="55" ht="16.5" spans="3:15">
+      <c r="C55" s="40"/>
+      <c r="D55" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="E55" s="41"/>
+      <c r="F55" s="41"/>
+      <c r="G55" s="81"/>
+      <c r="K55" s="99" t="s">
+        <v>55</v>
+      </c>
+      <c r="L55" s="100" t="s">
+        <v>44</v>
+      </c>
+      <c r="M55" s="100"/>
+      <c r="N55" s="100"/>
+      <c r="O55" s="100"/>
+    </row>
+    <row r="56" ht="16.5" spans="3:15">
+      <c r="C56" s="42"/>
+      <c r="D56" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="E56" s="41"/>
+      <c r="F56" s="41"/>
+      <c r="G56" s="81"/>
+      <c r="K56" s="99" t="s">
+        <v>56</v>
+      </c>
+      <c r="L56" s="100" t="s">
+        <v>44</v>
+      </c>
+      <c r="M56" s="100"/>
+      <c r="N56" s="100"/>
+      <c r="O56" s="100"/>
+    </row>
+    <row r="57" ht="16.5" spans="3:15">
+      <c r="C57" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="D57" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="E57" s="44"/>
+      <c r="F57" s="44"/>
+      <c r="G57" s="82"/>
+      <c r="K57" s="99" t="s">
+        <v>57</v>
+      </c>
+      <c r="L57" s="100" t="s">
+        <v>44</v>
+      </c>
+      <c r="M57" s="100"/>
+      <c r="N57" s="100"/>
+      <c r="O57" s="100"/>
+    </row>
+    <row r="58" ht="16.5" spans="3:15">
+      <c r="C58" s="45"/>
+      <c r="D58" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="E58" s="44"/>
+      <c r="F58" s="44"/>
+      <c r="G58" s="82"/>
+      <c r="K58" s="101" t="s">
+        <v>58</v>
+      </c>
+      <c r="L58" s="100" t="s">
+        <v>44</v>
+      </c>
+      <c r="M58" s="100"/>
+      <c r="N58" s="100"/>
+      <c r="O58" s="100"/>
+    </row>
+    <row r="59" ht="16.5" spans="3:15">
+      <c r="C59" s="46"/>
+      <c r="D59" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="E59" s="47"/>
+      <c r="F59" s="47"/>
+      <c r="G59" s="83"/>
+      <c r="K59" s="101" t="s">
+        <v>44</v>
+      </c>
+      <c r="L59" s="100" t="s">
+        <v>44</v>
+      </c>
+      <c r="M59" s="100"/>
+      <c r="N59" s="100"/>
+      <c r="O59" s="100"/>
+    </row>
+    <row r="60" ht="16.5" spans="3:15">
+      <c r="C60" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="D60" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="E60" s="84"/>
+      <c r="F60" s="84"/>
+      <c r="G60" s="85"/>
+      <c r="K60" s="101" t="s">
+        <v>44</v>
+      </c>
+      <c r="L60" s="100" t="s">
+        <v>44</v>
+      </c>
+      <c r="M60" s="100"/>
+      <c r="N60" s="100"/>
+      <c r="O60" s="100"/>
+    </row>
+    <row r="61" ht="16.5" spans="3:15">
+      <c r="C61" s="50"/>
+      <c r="D61" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="E61" s="84"/>
+      <c r="F61" s="84"/>
+      <c r="G61" s="85"/>
+      <c r="K61" s="101" t="s">
+        <v>44</v>
+      </c>
+      <c r="L61" s="100" t="s">
+        <v>44</v>
+      </c>
+      <c r="M61" s="100"/>
+      <c r="N61" s="100"/>
+      <c r="O61" s="100"/>
+    </row>
+    <row r="62" ht="16.5" spans="3:7">
+      <c r="C62" s="52"/>
+      <c r="D62" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="E62" s="84"/>
+      <c r="F62" s="84"/>
+      <c r="G62" s="85"/>
+    </row>
+    <row r="63" ht="15.75"/>
+    <row r="69" spans="3:15">
+      <c r="C69" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="D69" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="E69" s="32"/>
+      <c r="F69" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="G69" s="32"/>
+      <c r="H69" s="32"/>
+      <c r="K69" s="105" t="s">
+        <v>63</v>
+      </c>
+      <c r="L69" s="106" t="s">
+        <v>64</v>
+      </c>
+      <c r="M69" s="106"/>
+      <c r="N69" s="106"/>
+      <c r="O69" s="106"/>
+    </row>
+    <row r="70" spans="3:15">
+      <c r="C70" s="102" t="s">
+        <v>45</v>
+      </c>
+      <c r="D70" s="103" t="s">
+        <v>47</v>
+      </c>
+      <c r="E70" s="103" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" s="104" t="s">
+        <v>65</v>
+      </c>
+      <c r="G70" s="104" t="s">
+        <v>66</v>
+      </c>
+      <c r="H70" s="104" t="s">
+        <v>44</v>
+      </c>
+      <c r="K70" s="107"/>
+      <c r="L70" s="108" t="s">
+        <v>47</v>
+      </c>
+      <c r="M70" s="108" t="s">
+        <v>67</v>
+      </c>
+      <c r="N70" s="108" t="s">
+        <v>68</v>
+      </c>
+      <c r="O70" s="108" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" spans="3:15">
+      <c r="C71" s="102" t="s">
+        <v>47</v>
+      </c>
+      <c r="D71" s="103" t="s">
+        <v>69</v>
+      </c>
+      <c r="E71" s="103" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" s="104" t="s">
+        <v>45</v>
+      </c>
+      <c r="G71" s="104" t="s">
+        <v>70</v>
+      </c>
+      <c r="H71" s="104" t="s">
+        <v>44</v>
+      </c>
+      <c r="K71" s="109" t="s">
+        <v>45</v>
+      </c>
+      <c r="L71" s="108" t="s">
+        <v>44</v>
+      </c>
+      <c r="M71" s="108" t="s">
+        <v>44</v>
+      </c>
+      <c r="N71" s="108" t="s">
+        <v>44</v>
+      </c>
+      <c r="O71" s="108" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="72" spans="3:15">
+      <c r="C72" s="102" t="s">
+        <v>69</v>
+      </c>
+      <c r="D72" s="103" t="s">
+        <v>70</v>
+      </c>
+      <c r="E72" s="103" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" s="104" t="s">
+        <v>47</v>
+      </c>
+      <c r="G72" s="104" t="s">
+        <v>44</v>
+      </c>
+      <c r="H72" s="104" t="s">
+        <v>44</v>
+      </c>
+      <c r="K72" s="109"/>
+      <c r="L72" s="108" t="s">
+        <v>44</v>
+      </c>
+      <c r="M72" s="108" t="s">
+        <v>44</v>
+      </c>
+      <c r="N72" s="108" t="s">
+        <v>44</v>
+      </c>
+      <c r="O72" s="108" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="73" spans="3:15">
+      <c r="C73" s="102" t="s">
+        <v>70</v>
+      </c>
+      <c r="D73" s="103" t="s">
+        <v>47</v>
+      </c>
+      <c r="E73" s="103" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" s="104" t="s">
+        <v>69</v>
+      </c>
+      <c r="G73" s="104" t="s">
+        <v>44</v>
+      </c>
+      <c r="H73" s="104" t="s">
+        <v>44</v>
+      </c>
+      <c r="K73" s="109"/>
+      <c r="L73" s="108" t="s">
+        <v>44</v>
+      </c>
+      <c r="M73" s="108" t="s">
+        <v>44</v>
+      </c>
+      <c r="N73" s="108" t="s">
+        <v>44</v>
+      </c>
+      <c r="O73" s="108" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="74" spans="3:15">
+      <c r="C74" s="102" t="s">
+        <v>44</v>
+      </c>
+      <c r="D74" s="103" t="s">
+        <v>44</v>
+      </c>
+      <c r="E74" s="103" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" s="104" t="s">
+        <v>44</v>
+      </c>
+      <c r="G74" s="104" t="s">
+        <v>44</v>
+      </c>
+      <c r="H74" s="104" t="s">
+        <v>44</v>
+      </c>
+      <c r="K74" s="110" t="s">
+        <v>47</v>
+      </c>
+      <c r="L74" s="108"/>
+      <c r="M74" s="108" t="s">
+        <v>44</v>
+      </c>
+      <c r="N74" s="108" t="s">
+        <v>44</v>
+      </c>
+      <c r="O74" s="108" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="75" spans="11:15">
+      <c r="K75" s="110"/>
+      <c r="L75" s="108"/>
+      <c r="M75" s="108" t="s">
+        <v>44</v>
+      </c>
+      <c r="N75" s="108" t="s">
+        <v>44</v>
+      </c>
+      <c r="O75" s="108" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="76" spans="11:15">
+      <c r="K76" s="110"/>
+      <c r="L76" s="108"/>
+      <c r="M76" s="108" t="s">
+        <v>44</v>
+      </c>
+      <c r="N76" s="108" t="s">
+        <v>44</v>
+      </c>
+      <c r="O76" s="108" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="77" spans="11:15">
+      <c r="K77" s="111" t="s">
+        <v>69</v>
+      </c>
+      <c r="L77" s="108" t="s">
+        <v>44</v>
+      </c>
+      <c r="M77" s="108" t="s">
+        <v>44</v>
+      </c>
+      <c r="N77" s="108" t="s">
+        <v>44</v>
+      </c>
+      <c r="O77" s="108" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="78" spans="11:15">
+      <c r="K78" s="111"/>
+      <c r="L78" s="108" t="s">
+        <v>44</v>
+      </c>
+      <c r="M78" s="108" t="s">
+        <v>44</v>
+      </c>
+      <c r="N78" s="108" t="s">
+        <v>44</v>
+      </c>
+      <c r="O78" s="108" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="79" spans="11:15">
+      <c r="K79" s="111"/>
+      <c r="L79" s="108" t="s">
+        <v>44</v>
+      </c>
+      <c r="M79" s="108" t="s">
+        <v>44</v>
+      </c>
+      <c r="N79" s="108" t="s">
+        <v>44</v>
+      </c>
+      <c r="O79" s="108" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="80" spans="11:11">
+      <c r="K80" s="112"/>
+    </row>
+    <row r="81" spans="11:11">
+      <c r="K81" s="112"/>
+    </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="58">
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="G3:I3"/>
     <mergeCell ref="C8:I8"/>
@@ -3345,10 +4472,54 @@
     <mergeCell ref="D30:E30"/>
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="L53:O53"/>
+    <mergeCell ref="D54:G54"/>
+    <mergeCell ref="L54:O54"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="L55:O55"/>
+    <mergeCell ref="D56:G56"/>
+    <mergeCell ref="L56:O56"/>
+    <mergeCell ref="D57:G57"/>
+    <mergeCell ref="L57:O57"/>
+    <mergeCell ref="D58:G58"/>
+    <mergeCell ref="L58:O58"/>
+    <mergeCell ref="D59:G59"/>
+    <mergeCell ref="L59:O59"/>
+    <mergeCell ref="D60:G60"/>
+    <mergeCell ref="L60:O60"/>
+    <mergeCell ref="D61:G61"/>
+    <mergeCell ref="L61:O61"/>
+    <mergeCell ref="D62:G62"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="F69:H69"/>
+    <mergeCell ref="L69:O69"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="C54:C56"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="D40:D42"/>
+    <mergeCell ref="D43:D45"/>
+    <mergeCell ref="E37:E39"/>
+    <mergeCell ref="E40:E42"/>
+    <mergeCell ref="E43:E45"/>
     <mergeCell ref="F4:F7"/>
     <mergeCell ref="F9:F11"/>
     <mergeCell ref="F13:F15"/>
+    <mergeCell ref="F37:F39"/>
+    <mergeCell ref="F40:F42"/>
+    <mergeCell ref="F43:F45"/>
+    <mergeCell ref="G37:G39"/>
+    <mergeCell ref="G40:G42"/>
+    <mergeCell ref="G43:G45"/>
     <mergeCell ref="H22:H24"/>
+    <mergeCell ref="K69:K70"/>
+    <mergeCell ref="K71:K73"/>
+    <mergeCell ref="K74:K76"/>
+    <mergeCell ref="K77:K79"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3370,8 +4541,8 @@
                     <xdr:rowOff>8255</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>12</xdr:col>
-                    <xdr:colOff>177165</xdr:colOff>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>334010</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>149225</xdr:rowOff>
                   </to>
